--- a/Excels/xlsx/Example.xlsx
+++ b/Excels/xlsx/Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23925" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>-</t>
   </si>
@@ -23,12 +23,6 @@
     <t>ignore</t>
   </si>
   <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>server</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -75,12 +69,6 @@
   </si>
   <si>
     <t>exampleEnum</t>
-  </si>
-  <si>
-    <t>exampleClient</t>
-  </si>
-  <si>
-    <t>exampleServer</t>
   </si>
   <si>
     <r>
@@ -172,12 +160,6 @@
     <t>测试忽略列</t>
   </si>
   <si>
-    <t>测试只导出客户端</t>
-  </si>
-  <si>
-    <t>测试只导出服务器</t>
-  </si>
-  <si>
     <t>example</t>
   </si>
   <si>
@@ -193,22 +175,10 @@
     <t>Type1</t>
   </si>
   <si>
-    <t>client1</t>
-  </si>
-  <si>
-    <t>server1</t>
-  </si>
-  <si>
     <t>{a,,c}</t>
   </si>
   <si>
     <t>Type2</t>
-  </si>
-  <si>
-    <t>client2</t>
-  </si>
-  <si>
-    <t>server2</t>
   </si>
   <si>
     <t>测试</t>
@@ -219,9 +189,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -252,18 +222,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,75 +288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,11 +304,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,8 +327,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,15 +367,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,43 +382,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +532,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,127 +556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,11 +576,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,6 +610,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -642,23 +644,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,179 +673,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1188,7 +1158,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" outlineLevelRow="5"/>
@@ -1230,124 +1200,108 @@
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" ht="18.75" spans="1:11">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" ht="18.75" spans="1:11">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" ht="18.75" spans="1:11">
       <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" ht="18.75" spans="1:11">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>1.5</v>
@@ -1356,26 +1310,22 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="2">
@@ -1391,26 +1341,22 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1431,7 +1377,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
